--- a/src/main/resources/Utlity Table.xlsx
+++ b/src/main/resources/Utlity Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apolloits-my.sharepoint.com/personal/nischay_m_apolloits_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6922E6A6-14A6-4370-A6D3-F79F5EB724DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A5CC5DC-A4F8-4EBF-8992-003ECA504F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-8340" windowWidth="30936" windowHeight="16776" xr2:uid="{68D5B328-6ABB-42A7-8ABA-2A0E36049037}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <sheet name="BulkDataGenerator" sheetId="7" r:id="rId5"/>
     <sheet name="App E column C" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UtilityAgencyListing!$A$1:$N$40</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1277">
   <si>
     <t>HomeAgency</t>
   </si>
@@ -85,9 +88,6 @@
     <t>HubId</t>
   </si>
   <si>
-    <t>Display Agency</t>
-  </si>
-  <si>
     <t>0006</t>
   </si>
   <si>
@@ -109,9 +109,6 @@
     <t>EZIOP</t>
   </si>
   <si>
-    <t>CSCShortName+CSCID</t>
-  </si>
-  <si>
     <t>0120</t>
   </si>
   <si>
@@ -136,7 +133,7 @@
     <t>0010529493</t>
   </si>
   <si>
-    <t>0010529494</t>
+    <t>1010529494</t>
   </si>
   <si>
     <t>0013</t>
@@ -472,6 +469,12 @@
     <t>None</t>
   </si>
   <si>
+    <t>0000058677</t>
+  </si>
+  <si>
+    <t>0000147050</t>
+  </si>
+  <si>
     <t>0080</t>
   </si>
   <si>
@@ -484,9 +487,21 @@
     <t>0081</t>
   </si>
   <si>
+    <t>0000058678</t>
+  </si>
+  <si>
+    <t>0000147051</t>
+  </si>
+  <si>
     <t>0083</t>
   </si>
   <si>
+    <t>0000058679</t>
+  </si>
+  <si>
+    <t>0000147052</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -536,6 +551,24 @@
   </si>
   <si>
     <t>Itxc_File_Num</t>
+  </si>
+  <si>
+    <t>ITAG_Valid</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>all Agency</t>
+  </si>
+  <si>
+    <t>ITAG_LOW_Bal</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ITAG_Invalid</t>
   </si>
   <si>
     <t>LIC_TYPE</t>
@@ -4386,10 +4419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB6E20C-A33D-40AF-8C7C-658D7F955B95}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4400,16 +4433,16 @@
     <col min="4" max="5" width="31.42578125" customWidth="1"/>
     <col min="6" max="6" width="31.42578125" style="12" customWidth="1"/>
     <col min="7" max="7" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16" style="19" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="25" style="19" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="12" customWidth="1"/>
     <col min="14" max="14" width="16" style="12" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4452,11 +4485,8 @@
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="20">
         <v>0</v>
       </c>
@@ -4464,28 +4494,28 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>20</v>
       </c>
       <c r="K2" s="7">
         <v>1</v>
@@ -4494,16 +4524,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="10">
         <v>9003</v>
       </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="20">
         <v>0</v>
       </c>
@@ -4511,28 +4538,28 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>20</v>
       </c>
       <c r="K3" s="7">
         <v>1</v>
@@ -4541,13 +4568,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="20">
         <v>0</v>
       </c>
@@ -4555,28 +4582,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>20</v>
       </c>
       <c r="K4" s="7">
         <v>1</v>
@@ -4585,13 +4612,13 @@
         <v>1</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5" s="20">
         <v>0</v>
       </c>
@@ -4599,28 +4626,28 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="H5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="K5" s="7">
         <v>1</v>
@@ -4629,13 +4656,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="20">
         <v>0</v>
       </c>
@@ -4643,28 +4670,28 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>30</v>
-      </c>
       <c r="J6" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7">
         <v>1</v>
@@ -4673,13 +4700,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="20">
         <v>0</v>
       </c>
@@ -4687,28 +4714,28 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7">
         <v>1</v>
@@ -4717,13 +4744,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8" s="20">
         <v>0</v>
       </c>
@@ -4731,28 +4758,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7">
         <v>1</v>
@@ -4761,13 +4788,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9" s="20">
         <v>0</v>
       </c>
@@ -4775,28 +4802,28 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7">
         <v>1</v>
@@ -4805,13 +4832,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="A10" s="20">
         <v>0</v>
       </c>
@@ -4819,28 +4846,28 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="J10" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="K10" s="7">
         <v>1</v>
@@ -4849,13 +4876,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:14">
       <c r="A11" s="20">
         <v>0</v>
       </c>
@@ -4863,28 +4890,28 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="I11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="J11" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="K11" s="7">
         <v>1</v>
@@ -4893,13 +4920,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N11" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:14">
       <c r="A12" s="20">
         <v>0</v>
       </c>
@@ -4907,28 +4934,28 @@
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>46</v>
-      </c>
       <c r="J12" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12" s="7">
         <v>1</v>
@@ -4937,13 +4964,13 @@
         <v>1</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:14">
       <c r="A13" s="20">
         <v>0</v>
       </c>
@@ -4951,28 +4978,28 @@
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="J13" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="K13" s="7">
         <v>1</v>
@@ -4981,13 +5008,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N13" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:14">
       <c r="A14" s="20">
         <v>0</v>
       </c>
@@ -4995,28 +5022,28 @@
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="I14" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="K14" s="7">
         <v>1</v>
@@ -5025,13 +5052,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:14">
       <c r="A15" s="20">
         <v>0</v>
       </c>
@@ -5039,28 +5066,28 @@
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="I15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="J15" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="K15" s="7">
         <v>1</v>
@@ -5069,13 +5096,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" s="10">
         <v>9003</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:14">
       <c r="A16" s="20">
         <v>0</v>
       </c>
@@ -5083,28 +5110,28 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="J16" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
@@ -5113,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16" s="10">
         <v>9003</v>
@@ -5127,28 +5154,28 @@
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="J17" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7">
         <v>1</v>
@@ -5157,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N17" s="10">
         <v>9003</v>
@@ -5171,28 +5198,28 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="J18" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K18" s="7">
         <v>1</v>
@@ -5201,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18" s="10">
         <v>9003</v>
@@ -5215,28 +5242,28 @@
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="J19" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K19" s="7">
         <v>1</v>
@@ -5245,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19" s="10">
         <v>9003</v>
@@ -5259,28 +5286,28 @@
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="J20" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="K20" s="7">
         <v>1</v>
@@ -5289,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20" s="10">
         <v>9003</v>
@@ -5303,28 +5330,28 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="J21" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="K21" s="7">
         <v>1</v>
@@ -5333,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N21" s="10">
         <v>9003</v>
@@ -5347,28 +5374,28 @@
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="J22" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="K22" s="7">
         <v>1</v>
@@ -5377,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22" s="10">
         <v>9003</v>
@@ -5391,28 +5418,28 @@
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="K23" s="7">
         <v>1</v>
@@ -5421,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23" s="10">
         <v>9003</v>
@@ -5435,28 +5462,28 @@
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="J24" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="K24" s="7">
         <v>1</v>
@@ -5465,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N24" s="10">
         <v>9003</v>
@@ -5479,28 +5506,28 @@
         <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="K25" s="7">
         <v>1</v>
@@ -5509,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N25" s="10">
         <v>9003</v>
@@ -5523,28 +5550,28 @@
         <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="J26" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="K26" s="7">
         <v>1</v>
@@ -5553,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N26" s="10">
         <v>9003</v>
@@ -5567,28 +5594,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="J27" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="K27" s="7">
         <v>1</v>
@@ -5597,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N27" s="10">
         <v>9003</v>
@@ -5611,28 +5638,28 @@
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="J28" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="K28" s="7">
         <v>1</v>
@@ -5641,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N28" s="10">
         <v>9003</v>
@@ -5655,28 +5682,28 @@
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="H29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="K29" s="7">
         <v>1</v>
@@ -5685,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N29" s="10">
         <v>9003</v>
@@ -5699,28 +5726,28 @@
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="H30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="K30" s="7">
         <v>1</v>
@@ -5729,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N30" s="10">
         <v>9003</v>
@@ -5743,28 +5770,28 @@
         <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="H31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="K31" s="7">
         <v>1</v>
@@ -5773,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N31" s="10">
         <v>9003</v>
@@ -5787,28 +5814,28 @@
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="J32" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="K32" s="7">
         <v>1</v>
@@ -5817,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N32" s="10">
         <v>9003</v>
@@ -5831,28 +5858,28 @@
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="J33" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="K33" s="7">
         <v>1</v>
@@ -5861,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N33" s="10">
         <v>9003</v>
@@ -5875,28 +5902,28 @@
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="F34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="J34" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="K34" s="7">
         <v>1</v>
@@ -5905,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N34" s="10">
         <v>9003</v>
@@ -5919,28 +5946,28 @@
         <v>0</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="K35" s="7">
         <v>1</v>
@@ -5949,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N35" s="10">
         <v>9003</v>
@@ -5963,28 +5990,28 @@
         <v>0</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="F36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="J36" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="K36" s="7">
         <v>1</v>
@@ -5993,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N36" s="10">
         <v>9003</v>
@@ -6007,28 +6034,28 @@
         <v>0</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="J37" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>138</v>
       </c>
       <c r="K37" s="7">
         <v>1</v>
@@ -6037,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N37" s="10">
         <v>9003</v>
@@ -6051,25 +6078,29 @@
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="F38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="H38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="J38" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
       <c r="K38" s="7">
         <v>0</v>
       </c>
@@ -6077,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N38" s="10">
         <v>9003</v>
@@ -6100,7 +6131,7 @@
         <v>145</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>143</v>
@@ -6108,8 +6139,12 @@
       <c r="H39" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
+      <c r="I39" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="K39" s="7">
         <v>1</v>
       </c>
@@ -6117,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N39" s="10">
         <v>9003</v>
@@ -6140,16 +6175,20 @@
         <v>145</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>143</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
+        <v>149</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>151</v>
+      </c>
       <c r="K40" s="7">
         <v>1</v>
       </c>
@@ -6157,13 +6196,14 @@
         <v>1</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N40" s="10">
         <v>9003</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N40" xr:uid="{ECB6E20C-A33D-40AF-8C7C-658D7F955B95}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -6174,10 +6214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F76E9A6-262D-46FC-96E3-D22B5FA83555}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6188,114 +6228,150 @@
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>158</v>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6318,232 +6394,232 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="16" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="17" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="17" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="17" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="17" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="17" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="17" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="17" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="17" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="17" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="17" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="17" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="17" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="17" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="17" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="17" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="17" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="17" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="17" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="17" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="17" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="17" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="17" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="17" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="17" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="17" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="17" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="17" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="17" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="17" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="17" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="17" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="17" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="17" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="17" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="17" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="17" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="17" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="17" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="17" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -6563,1617 +6639,1617 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="17" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="17" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="17" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="17" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="17" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="17" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="17" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="17" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="17" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="17" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="17" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="17" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="17" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="17" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="17" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="17" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="17" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="17" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="17" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="17" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="17" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="17" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="17" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="17" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="17" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="17" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="17" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="17" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="17" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="17" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="17" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="17" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="17" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="17" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="17" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="17" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="17" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="17" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="17" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="17" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="17" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="17" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="17" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="17" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="17" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="17" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="17" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="17" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="17" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="17" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="17" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="17" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="17" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="17" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="17" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="17" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="17" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="17" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="17" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="17" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="17" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="17" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="17" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="17" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="17" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="17" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="17" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="17" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="17" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="17" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="17" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="17" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="17" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="17" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="17" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="17" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="17" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="17" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="17" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="17" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="17" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="17" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="17" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="17" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="17" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="17" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="17" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="17" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="17" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="17" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="17" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="17" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="17" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="17" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="17" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="17" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="17" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="17" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="17" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="17" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="17" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="17" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="17" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="17" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="17" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="17" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="17" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="17" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="17" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="17" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="17" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="17" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="17" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="17" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="17" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="17" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="17" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="17" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="17" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="17" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="17" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="17" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="17" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="17" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="17" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="17" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="17" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="17" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="17" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="17" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="17" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="17" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="17" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="17" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="17" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="17" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="17" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="17" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="17" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="17" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="17" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="17" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="17" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="17" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="17" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="17" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="17" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="17" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="17" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="17" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="17" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="17" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="17" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" s="17" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" s="17" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="17" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="17" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="17" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="17" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="17" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="17" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="17" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="17" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="17" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="17" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" s="17" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="17" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="17" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="17" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="17" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" s="17" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" s="17" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="17" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" s="17" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" s="17" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="17" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" s="17" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="17" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="17" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" s="17" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="17" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" s="17" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" s="17" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="17" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="17" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="17" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="17" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="17" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="17" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" s="17" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" s="17" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" s="17" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" s="17" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" s="17" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" s="17" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" s="17" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" s="17" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" s="17" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" s="17" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" s="17" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" s="17" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" s="17" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="17" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="17" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" s="17" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" s="17" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" s="17" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" s="17" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="17" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" s="17" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" s="17" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" s="17" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" s="17" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" s="17" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="17" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="17" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" s="17" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" s="17" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="17" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" s="17" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="17" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" s="17" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="17" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" s="17" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" s="17" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" s="17" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" s="17" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" s="17" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" s="17" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" s="17" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" s="17" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" s="17" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" s="17" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" s="17" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" s="17" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" s="17" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" s="17" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" s="17" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" s="17" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" s="17" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" s="17" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" s="17" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" s="17" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" s="17" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" s="17" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" s="17" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" s="17" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" s="17" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" s="17" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" s="17" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" s="17" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" s="17" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" s="17" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="306" spans="2:2">
       <c r="B306" s="17" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="307" spans="2:2">
       <c r="B307" s="17" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="308" spans="2:2">
       <c r="B308" s="17" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="309" spans="2:2">
       <c r="B309" s="17" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="310" spans="2:2">
       <c r="B310" s="17" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="311" spans="2:2">
       <c r="B311" s="17" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="312" spans="2:2">
       <c r="B312" s="17" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="313" spans="2:2">
       <c r="B313" s="17" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="314" spans="2:2">
       <c r="B314" s="17" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" s="17" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="316" spans="2:2">
       <c r="B316" s="17" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" s="17" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" s="17" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" s="17" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="320" spans="2:2">
       <c r="B320" s="17" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" s="17" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="322" spans="2:2">
       <c r="B322" s="17" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="323" spans="2:2">
       <c r="B323" s="17" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="324" spans="2:2">
       <c r="B324" s="17" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" s="17" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="326" spans="2:2">
       <c r="B326" s="17" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="327" spans="2:2">
       <c r="B327" s="17" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="328" spans="2:2">
       <c r="B328" s="17" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" s="17" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" spans="2:2">
       <c r="B330" s="17" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="331" spans="2:2">
       <c r="B331" s="17" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="332" spans="2:2">
       <c r="B332" s="17" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" s="17" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="334" spans="2:2">
       <c r="B334" s="17" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="335" spans="2:2">
       <c r="B335" s="17" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="336" spans="2:2">
       <c r="B336" s="17" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="337" spans="2:2">
       <c r="B337" s="17" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="338" spans="2:2">
       <c r="B338" s="17" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="339" spans="2:2">
       <c r="B339" s="17" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="340" spans="2:2">
       <c r="B340" s="17" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="341" spans="2:2">
       <c r="B341" s="17" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="342" spans="2:2">
       <c r="B342" s="17" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" s="17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="344" spans="2:2">
       <c r="B344" s="17" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="345" spans="2:2">
       <c r="B345" s="17" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="346" spans="2:2">
       <c r="B346" s="17" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="347" spans="2:2">
       <c r="B347" s="17" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="348" spans="2:2">
       <c r="B348" s="17" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="349" spans="2:2">
       <c r="B349" s="17" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="350" spans="2:2">
       <c r="B350" s="17" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="351" spans="2:2">
       <c r="B351" s="17" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="352" spans="2:2">
       <c r="B352" s="17" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="353" spans="2:2">
       <c r="B353" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="354" spans="2:2">
       <c r="B354" s="17" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="355" spans="2:2">
       <c r="B355" s="17" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="356" spans="2:2">
       <c r="B356" s="17" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="357" spans="2:2">
       <c r="B357" s="17" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="358" spans="2:2">
       <c r="B358" s="17" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="359" spans="2:2">
       <c r="B359" s="17" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="360" spans="2:2">
       <c r="B360" s="17" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="361" spans="2:2">
       <c r="B361" s="17" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="362" spans="2:2">
       <c r="B362" s="17" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="363" spans="2:2">
       <c r="B363" s="17" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="364" spans="2:2">
       <c r="B364" s="17" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row r="365" spans="2:2">
       <c r="B365" s="17" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="366" spans="2:2">
       <c r="B366" s="17" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="367" spans="2:2">
       <c r="B367" s="17" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="368" spans="2:2">
       <c r="B368" s="17" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="369" spans="2:2">
       <c r="B369" s="17" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="370" spans="2:2">
       <c r="B370" s="17" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="371" spans="2:2">
       <c r="B371" s="17" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="372" spans="2:2">
       <c r="B372" s="17" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="373" spans="2:2">
@@ -8383,4017 +8459,4017 @@
     </row>
     <row r="414" spans="2:2">
       <c r="B414" s="17" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="415" spans="2:2">
       <c r="B415" s="17" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="416" spans="2:2">
       <c r="B416" s="17" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="417" spans="2:2">
       <c r="B417" s="17" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="418" spans="2:2">
       <c r="B418" s="17" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="419" spans="2:2">
       <c r="B419" s="17" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="420" spans="2:2">
       <c r="B420" s="17" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="421" spans="2:2">
       <c r="B421" s="17" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="422" spans="2:2">
       <c r="B422" s="17" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="423" spans="2:2">
       <c r="B423" s="17" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="424" spans="2:2">
       <c r="B424" s="17" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="425" spans="2:2">
       <c r="B425" s="17" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="426" spans="2:2">
       <c r="B426" s="17" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="427" spans="2:2">
       <c r="B427" s="17" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="428" spans="2:2">
       <c r="B428" s="17" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
     </row>
     <row r="429" spans="2:2">
       <c r="B429" s="17" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="430" spans="2:2">
       <c r="B430" s="17" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="431" spans="2:2">
       <c r="B431" s="17" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="432" spans="2:2">
       <c r="B432" s="17" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="433" spans="2:2">
       <c r="B433" s="17" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="434" spans="2:2">
       <c r="B434" s="17" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="435" spans="2:2">
       <c r="B435" s="17" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="436" spans="2:2">
       <c r="B436" s="17" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="437" spans="2:2">
       <c r="B437" s="17" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="438" spans="2:2">
       <c r="B438" s="17" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="439" spans="2:2">
       <c r="B439" s="17" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="440" spans="2:2">
       <c r="B440" s="17" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="441" spans="2:2">
       <c r="B441" s="17" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="442" spans="2:2">
       <c r="B442" s="17" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="443" spans="2:2">
       <c r="B443" s="17" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="444" spans="2:2">
       <c r="B444" s="17" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="445" spans="2:2">
       <c r="B445" s="17" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="446" spans="2:2">
       <c r="B446" s="17" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="447" spans="2:2">
       <c r="B447" s="17" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="448" spans="2:2">
       <c r="B448" s="17" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="449" spans="2:2">
       <c r="B449" s="17" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="450" spans="2:2">
       <c r="B450" s="17" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="451" spans="2:2">
       <c r="B451" s="17" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="452" spans="2:2">
       <c r="B452" s="17" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="453" spans="2:2">
       <c r="B453" s="17" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
     </row>
     <row r="454" spans="2:2">
       <c r="B454" s="17" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="455" spans="2:2">
       <c r="B455" s="17" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="456" spans="2:2">
       <c r="B456" s="17" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="457" spans="2:2">
       <c r="B457" s="17" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="458" spans="2:2">
       <c r="B458" s="17" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="459" spans="2:2">
       <c r="B459" s="17" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="460" spans="2:2">
       <c r="B460" s="17" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="461" spans="2:2">
       <c r="B461" s="17" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="462" spans="2:2">
       <c r="B462" s="17" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
     </row>
     <row r="463" spans="2:2">
       <c r="B463" s="17" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
     </row>
     <row r="464" spans="2:2">
       <c r="B464" s="17" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="465" spans="2:2">
       <c r="B465" s="17" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="466" spans="2:2">
       <c r="B466" s="17" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="467" spans="2:2">
       <c r="B467" s="17" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="468" spans="2:2">
       <c r="B468" s="17" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="469" spans="2:2">
       <c r="B469" s="17" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="470" spans="2:2">
       <c r="B470" s="17" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="471" spans="2:2">
       <c r="B471" s="17" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="2:2">
       <c r="B472" s="17" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="473" spans="2:2">
       <c r="B473" s="17" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="474" spans="2:2">
       <c r="B474" s="17" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="475" spans="2:2">
       <c r="B475" s="17" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="476" spans="2:2">
       <c r="B476" s="17" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="477" spans="2:2">
       <c r="B477" s="17" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="478" spans="2:2">
       <c r="B478" s="17" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="479" spans="2:2">
       <c r="B479" s="17" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="480" spans="2:2">
       <c r="B480" s="17" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="481" spans="2:2">
       <c r="B481" s="17" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
     </row>
     <row r="482" spans="2:2">
       <c r="B482" s="17" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
     </row>
     <row r="483" spans="2:2">
       <c r="B483" s="17" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="484" spans="2:2">
       <c r="B484" s="17" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="485" spans="2:2">
       <c r="B485" s="17" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row r="486" spans="2:2">
       <c r="B486" s="17" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="487" spans="2:2">
       <c r="B487" s="17" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="488" spans="2:2">
       <c r="B488" s="17" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="489" spans="2:2">
       <c r="B489" s="17" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="490" spans="2:2">
       <c r="B490" s="17" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="491" spans="2:2">
       <c r="B491" s="17" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="492" spans="2:2">
       <c r="B492" s="17" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="493" spans="2:2">
       <c r="B493" s="17" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="494" spans="2:2">
       <c r="B494" s="17" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="495" spans="2:2">
       <c r="B495" s="17" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
     </row>
     <row r="496" spans="2:2">
       <c r="B496" s="17" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="497" spans="2:2">
       <c r="B497" s="17" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
     <row r="498" spans="2:2">
       <c r="B498" s="17" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="499" spans="2:2">
       <c r="B499" s="17" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="500" spans="2:2">
       <c r="B500" s="17" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="501" spans="2:2">
       <c r="B501" s="17" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="502" spans="2:2">
       <c r="B502" s="17" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="503" spans="2:2">
       <c r="B503" s="17" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="504" spans="2:2">
       <c r="B504" s="17" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="505" spans="2:2">
       <c r="B505" s="17" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
     <row r="506" spans="2:2">
       <c r="B506" s="17" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="507" spans="2:2">
       <c r="B507" s="17" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="508" spans="2:2">
       <c r="B508" s="17" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="509" spans="2:2">
       <c r="B509" s="17" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="510" spans="2:2">
       <c r="B510" s="17" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="511" spans="2:2">
       <c r="B511" s="17" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="512" spans="2:2">
       <c r="B512" s="17" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="513" spans="2:2">
       <c r="B513" s="17" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="514" spans="2:2">
       <c r="B514" s="17" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="515" spans="2:2">
       <c r="B515" s="17" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="516" spans="2:2">
       <c r="B516" s="17" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="517" spans="2:2">
       <c r="B517" s="17" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="518" spans="2:2">
       <c r="B518" s="17" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="519" spans="2:2">
       <c r="B519" s="17" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="520" spans="2:2">
       <c r="B520" s="17" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="521" spans="2:2">
       <c r="B521" s="17" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="522" spans="2:2">
       <c r="B522" s="17" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
     </row>
     <row r="523" spans="2:2">
       <c r="B523" s="17" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="524" spans="2:2">
       <c r="B524" s="17" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="525" spans="2:2">
       <c r="B525" s="17" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="526" spans="2:2">
       <c r="B526" s="17" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
     </row>
     <row r="527" spans="2:2">
       <c r="B527" s="17" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="528" spans="2:2">
       <c r="B528" s="17" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="529" spans="2:2">
       <c r="B529" s="17" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="530" spans="2:2">
       <c r="B530" s="17" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" s="17" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="532" spans="2:2">
       <c r="B532" s="17" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="533" spans="2:2">
       <c r="B533" s="17" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="534" spans="2:2">
       <c r="B534" s="17" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="535" spans="2:2">
       <c r="B535" s="17" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="536" spans="2:2">
       <c r="B536" s="17" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="537" spans="2:2">
       <c r="B537" s="17" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
     </row>
     <row r="538" spans="2:2">
       <c r="B538" s="17" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="539" spans="2:2">
       <c r="B539" s="17" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="540" spans="2:2">
       <c r="B540" s="17" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="541" spans="2:2">
       <c r="B541" s="17" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="542" spans="2:2">
       <c r="B542" s="17" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="543" spans="2:2">
       <c r="B543" s="17" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="544" spans="2:2">
       <c r="B544" s="17" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="545" spans="2:2">
       <c r="B545" s="17" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="546" spans="2:2">
       <c r="B546" s="17" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="547" spans="2:2">
       <c r="B547" s="17" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
     </row>
     <row r="548" spans="2:2">
       <c r="B548" s="17" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
     </row>
     <row r="549" spans="2:2">
       <c r="B549" s="17" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="550" spans="2:2">
       <c r="B550" s="17" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
     </row>
     <row r="551" spans="2:2">
       <c r="B551" s="17" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="552" spans="2:2">
       <c r="B552" s="17" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
     </row>
     <row r="553" spans="2:2">
       <c r="B553" s="17" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
     </row>
     <row r="554" spans="2:2">
       <c r="B554" s="17" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="555" spans="2:2">
       <c r="B555" s="17" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row r="556" spans="2:2">
       <c r="B556" s="17" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="557" spans="2:2">
       <c r="B557" s="17" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
     </row>
     <row r="558" spans="2:2">
       <c r="B558" s="17" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
     </row>
     <row r="559" spans="2:2">
       <c r="B559" s="17" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
     </row>
     <row r="560" spans="2:2">
       <c r="B560" s="17" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
     </row>
     <row r="561" spans="2:2">
       <c r="B561" s="17" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="562" spans="2:2">
       <c r="B562" s="17" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" s="17" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="564" spans="2:2">
       <c r="B564" s="17" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
     </row>
     <row r="565" spans="2:2">
       <c r="B565" s="17" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="566" spans="2:2">
       <c r="B566" s="17" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="567" spans="2:2">
       <c r="B567" s="17" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="568" spans="2:2">
       <c r="B568" s="17" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" s="17" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="570" spans="2:2">
       <c r="B570" s="17" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
     </row>
     <row r="571" spans="2:2">
       <c r="B571" s="17" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="572" spans="2:2">
       <c r="B572" s="17" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
     </row>
     <row r="573" spans="2:2">
       <c r="B573" s="17" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
     </row>
     <row r="574" spans="2:2">
       <c r="B574" s="17" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
     </row>
     <row r="575" spans="2:2">
       <c r="B575" s="17" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="576" spans="2:2">
       <c r="B576" s="17" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
     </row>
     <row r="577" spans="2:2">
       <c r="B577" s="17" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
     </row>
     <row r="578" spans="2:2">
       <c r="B578" s="17" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
     </row>
     <row r="579" spans="2:2">
       <c r="B579" s="17" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="580" spans="2:2">
       <c r="B580" s="17" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="581" spans="2:2">
       <c r="B581" s="17" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
     </row>
     <row r="582" spans="2:2">
       <c r="B582" s="17" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
     </row>
     <row r="583" spans="2:2">
       <c r="B583" s="17" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="584" spans="2:2">
       <c r="B584" s="17" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="585" spans="2:2">
       <c r="B585" s="17" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
     </row>
     <row r="586" spans="2:2">
       <c r="B586" s="17" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="587" spans="2:2">
       <c r="B587" s="17" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
     </row>
     <row r="588" spans="2:2">
       <c r="B588" s="17" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
     </row>
     <row r="589" spans="2:2">
       <c r="B589" s="17" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
     </row>
     <row r="590" spans="2:2">
       <c r="B590" s="17" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row r="591" spans="2:2">
       <c r="B591" s="17" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
     </row>
     <row r="592" spans="2:2">
       <c r="B592" s="17" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
     </row>
     <row r="593" spans="2:2">
       <c r="B593" s="17" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
     </row>
     <row r="594" spans="2:2">
       <c r="B594" s="17" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="595" spans="2:2">
       <c r="B595" s="17" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
     </row>
     <row r="596" spans="2:2">
       <c r="B596" s="17" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
     </row>
     <row r="597" spans="2:2">
       <c r="B597" s="17" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
     </row>
     <row r="598" spans="2:2">
       <c r="B598" s="17" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
     </row>
     <row r="599" spans="2:2">
       <c r="B599" s="17" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="600" spans="2:2">
       <c r="B600" s="17" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
     </row>
     <row r="601" spans="2:2">
       <c r="B601" s="17" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="602" spans="2:2">
       <c r="B602" s="17" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
     </row>
     <row r="603" spans="2:2">
       <c r="B603" s="17" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="604" spans="2:2">
       <c r="B604" s="17" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
     </row>
     <row r="605" spans="2:2">
       <c r="B605" s="17" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="606" spans="2:2">
       <c r="B606" s="17" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="607" spans="2:2">
       <c r="B607" s="17" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
     </row>
     <row r="608" spans="2:2">
       <c r="B608" s="17" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
     </row>
     <row r="609" spans="2:2">
       <c r="B609" s="17" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
     </row>
     <row r="610" spans="2:2">
       <c r="B610" s="17" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
     </row>
     <row r="611" spans="2:2">
       <c r="B611" s="17" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
     </row>
     <row r="612" spans="2:2">
       <c r="B612" s="17" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
     </row>
     <row r="613" spans="2:2">
       <c r="B613" s="17" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="614" spans="2:2">
       <c r="B614" s="17" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
     </row>
     <row r="615" spans="2:2">
       <c r="B615" s="17" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="616" spans="2:2">
       <c r="B616" s="17" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
     </row>
     <row r="617" spans="2:2">
       <c r="B617" s="17" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
     </row>
     <row r="618" spans="2:2">
       <c r="B618" s="17" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
     </row>
     <row r="619" spans="2:2">
       <c r="B619" s="17" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
     </row>
     <row r="620" spans="2:2">
       <c r="B620" s="17" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
     </row>
     <row r="621" spans="2:2">
       <c r="B621" s="17" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
     </row>
     <row r="622" spans="2:2">
       <c r="B622" s="17" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
     </row>
     <row r="623" spans="2:2">
       <c r="B623" s="17" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
     </row>
     <row r="624" spans="2:2">
       <c r="B624" s="17" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
     </row>
     <row r="625" spans="2:2">
       <c r="B625" s="17" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
     </row>
     <row r="626" spans="2:2">
       <c r="B626" s="17" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
     </row>
     <row r="627" spans="2:2">
       <c r="B627" s="17" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
     </row>
     <row r="628" spans="2:2">
       <c r="B628" s="17" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
     </row>
     <row r="629" spans="2:2">
       <c r="B629" s="17" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="630" spans="2:2">
       <c r="B630" s="17" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
     </row>
     <row r="631" spans="2:2">
       <c r="B631" s="17" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="632" spans="2:2">
       <c r="B632" s="17" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
     </row>
     <row r="633" spans="2:2">
       <c r="B633" s="17" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
     </row>
     <row r="634" spans="2:2">
       <c r="B634" s="17" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="635" spans="2:2">
       <c r="B635" s="17" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
     </row>
     <row r="636" spans="2:2">
       <c r="B636" s="17" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
     </row>
     <row r="637" spans="2:2">
       <c r="B637" s="17" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
     </row>
     <row r="638" spans="2:2">
       <c r="B638" s="17" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
     </row>
     <row r="639" spans="2:2">
       <c r="B639" s="17" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
     </row>
     <row r="640" spans="2:2">
       <c r="B640" s="17" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
     </row>
     <row r="641" spans="2:2">
       <c r="B641" s="17" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="642" spans="2:2">
       <c r="B642" s="17" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
     </row>
     <row r="643" spans="2:2">
       <c r="B643" s="17" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
     </row>
     <row r="644" spans="2:2">
       <c r="B644" s="17" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
     </row>
     <row r="645" spans="2:2">
       <c r="B645" s="17" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
     </row>
     <row r="646" spans="2:2">
       <c r="B646" s="17" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
     </row>
     <row r="647" spans="2:2">
       <c r="B647" s="17" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
     </row>
     <row r="648" spans="2:2">
       <c r="B648" s="17" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
     </row>
     <row r="649" spans="2:2">
       <c r="B649" s="17" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="650" spans="2:2">
       <c r="B650" s="17" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
     </row>
     <row r="651" spans="2:2">
       <c r="B651" s="17" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
     </row>
     <row r="652" spans="2:2">
       <c r="B652" s="17" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
     </row>
     <row r="653" spans="2:2">
       <c r="B653" s="17" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
     </row>
     <row r="654" spans="2:2">
       <c r="B654" s="17" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
     </row>
     <row r="655" spans="2:2">
       <c r="B655" s="17" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
     </row>
     <row r="656" spans="2:2">
       <c r="B656" s="17" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
     </row>
     <row r="657" spans="2:2">
       <c r="B657" s="17" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
     </row>
     <row r="658" spans="2:2">
       <c r="B658" s="17" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="659" spans="2:2">
       <c r="B659" s="17" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
     </row>
     <row r="660" spans="2:2">
       <c r="B660" s="17" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
     </row>
     <row r="661" spans="2:2">
       <c r="B661" s="17" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
     </row>
     <row r="662" spans="2:2">
       <c r="B662" s="17" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="663" spans="2:2">
       <c r="B663" s="17" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
     <row r="664" spans="2:2">
       <c r="B664" s="17" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
     </row>
     <row r="665" spans="2:2">
       <c r="B665" s="17" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="666" spans="2:2">
       <c r="B666" s="17" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="667" spans="2:2">
       <c r="B667" s="17" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="668" spans="2:2">
       <c r="B668" s="17" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
     </row>
     <row r="669" spans="2:2">
       <c r="B669" s="17" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
     </row>
     <row r="670" spans="2:2">
       <c r="B670" s="17" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
     </row>
     <row r="671" spans="2:2">
       <c r="B671" s="17" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
     </row>
     <row r="672" spans="2:2">
       <c r="B672" s="17" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
     </row>
     <row r="673" spans="2:2">
       <c r="B673" s="17" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
     </row>
     <row r="674" spans="2:2">
       <c r="B674" s="17" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
     </row>
     <row r="675" spans="2:2">
       <c r="B675" s="17" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
     </row>
     <row r="676" spans="2:2">
       <c r="B676" s="17" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
     </row>
     <row r="677" spans="2:2">
       <c r="B677" s="17" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
     </row>
     <row r="678" spans="2:2">
       <c r="B678" s="17" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="679" spans="2:2">
       <c r="B679" s="17" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
     </row>
     <row r="680" spans="2:2">
       <c r="B680" s="17" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
     </row>
     <row r="681" spans="2:2">
       <c r="B681" s="17" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
     </row>
     <row r="682" spans="2:2">
       <c r="B682" s="17" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
     </row>
     <row r="683" spans="2:2">
       <c r="B683" s="17" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="684" spans="2:2">
       <c r="B684" s="17" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="685" spans="2:2">
       <c r="B685" s="17" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="686" spans="2:2">
       <c r="B686" s="17" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
     </row>
     <row r="687" spans="2:2">
       <c r="B687" s="17" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="688" spans="2:2">
       <c r="B688" s="17" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
     </row>
     <row r="689" spans="2:2">
       <c r="B689" s="17" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
     </row>
     <row r="690" spans="2:2">
       <c r="B690" s="17" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
     </row>
     <row r="691" spans="2:2">
       <c r="B691" s="17" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
     </row>
     <row r="692" spans="2:2">
       <c r="B692" s="17" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
     </row>
     <row r="693" spans="2:2">
       <c r="B693" s="17" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
     </row>
     <row r="694" spans="2:2">
       <c r="B694" s="17" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
     </row>
     <row r="695" spans="2:2">
       <c r="B695" s="17" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
     </row>
     <row r="696" spans="2:2">
       <c r="B696" s="17" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
     </row>
     <row r="697" spans="2:2">
       <c r="B697" s="17" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
     </row>
     <row r="698" spans="2:2">
       <c r="B698" s="17" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="699" spans="2:2">
       <c r="B699" s="17" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
     </row>
     <row r="700" spans="2:2">
       <c r="B700" s="17" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
     </row>
     <row r="701" spans="2:2">
       <c r="B701" s="17" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
     </row>
     <row r="702" spans="2:2">
       <c r="B702" s="17" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
     </row>
     <row r="703" spans="2:2">
       <c r="B703" s="17" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
     </row>
     <row r="704" spans="2:2">
       <c r="B704" s="17" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
     </row>
     <row r="705" spans="2:2">
       <c r="B705" s="17" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
     </row>
     <row r="706" spans="2:2">
       <c r="B706" s="17" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
     </row>
     <row r="707" spans="2:2">
       <c r="B707" s="17" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
     </row>
     <row r="708" spans="2:2">
       <c r="B708" s="17" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
     </row>
     <row r="709" spans="2:2">
       <c r="B709" s="17" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
     </row>
     <row r="710" spans="2:2">
       <c r="B710" s="17" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="711" spans="2:2">
       <c r="B711" s="17" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
     </row>
     <row r="712" spans="2:2">
       <c r="B712" s="17" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
     </row>
     <row r="713" spans="2:2">
       <c r="B713" s="17" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
     </row>
     <row r="714" spans="2:2">
       <c r="B714" s="17" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
     </row>
     <row r="715" spans="2:2">
       <c r="B715" s="17" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
     </row>
     <row r="716" spans="2:2">
       <c r="B716" s="17" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
     </row>
     <row r="717" spans="2:2">
       <c r="B717" s="17" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
     </row>
     <row r="718" spans="2:2">
       <c r="B718" s="17" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
     </row>
     <row r="719" spans="2:2">
       <c r="B719" s="17" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
     </row>
     <row r="720" spans="2:2">
       <c r="B720" s="17" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
     </row>
     <row r="721" spans="2:2">
       <c r="B721" s="17" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
     </row>
     <row r="722" spans="2:2">
       <c r="B722" s="17" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row r="723" spans="2:2">
       <c r="B723" s="17" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
     </row>
     <row r="724" spans="2:2">
       <c r="B724" s="17" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
     </row>
     <row r="725" spans="2:2">
       <c r="B725" s="17" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
     </row>
     <row r="726" spans="2:2">
       <c r="B726" s="17" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
     </row>
     <row r="727" spans="2:2">
       <c r="B727" s="17" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="728" spans="2:2">
       <c r="B728" s="17" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
     </row>
     <row r="729" spans="2:2">
       <c r="B729" s="17" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
     </row>
     <row r="730" spans="2:2">
       <c r="B730" s="17" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
     </row>
     <row r="731" spans="2:2">
       <c r="B731" s="17" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
     </row>
     <row r="732" spans="2:2">
       <c r="B732" s="17" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
     </row>
     <row r="733" spans="2:2">
       <c r="B733" s="17" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
     </row>
     <row r="734" spans="2:2">
       <c r="B734" s="17" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="735" spans="2:2">
       <c r="B735" s="17" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
     </row>
     <row r="736" spans="2:2">
       <c r="B736" s="17" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
     </row>
     <row r="737" spans="2:2">
       <c r="B737" s="17" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
     </row>
     <row r="738" spans="2:2">
       <c r="B738" s="17" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
     </row>
     <row r="739" spans="2:2">
       <c r="B739" s="17" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
     </row>
     <row r="740" spans="2:2">
       <c r="B740" s="17" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
     </row>
     <row r="741" spans="2:2">
       <c r="B741" s="17" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
     </row>
     <row r="742" spans="2:2">
       <c r="B742" s="17" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="743" spans="2:2">
       <c r="B743" s="17" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
     </row>
     <row r="744" spans="2:2">
       <c r="B744" s="17" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="745" spans="2:2">
       <c r="B745" s="17" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
     </row>
     <row r="746" spans="2:2">
       <c r="B746" s="17" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
     </row>
     <row r="747" spans="2:2">
       <c r="B747" s="17" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
     </row>
     <row r="748" spans="2:2">
       <c r="B748" s="17" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
     </row>
     <row r="749" spans="2:2">
       <c r="B749" s="17" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="750" spans="2:2">
       <c r="B750" s="17" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
     </row>
     <row r="751" spans="2:2">
       <c r="B751" s="17" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
     </row>
     <row r="752" spans="2:2">
       <c r="B752" s="17" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
     </row>
     <row r="753" spans="2:2">
       <c r="B753" s="17" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
     </row>
     <row r="754" spans="2:2">
       <c r="B754" s="17" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
     </row>
     <row r="755" spans="2:2">
       <c r="B755" s="17" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
     </row>
     <row r="756" spans="2:2">
       <c r="B756" s="17" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
     </row>
     <row r="757" spans="2:2">
       <c r="B757" s="17" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="758" spans="2:2">
       <c r="B758" s="17" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
     </row>
     <row r="759" spans="2:2">
       <c r="B759" s="17" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
     </row>
     <row r="760" spans="2:2">
       <c r="B760" s="17" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
     </row>
     <row r="761" spans="2:2">
       <c r="B761" s="17" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
     </row>
     <row r="762" spans="2:2">
       <c r="B762" s="17" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
     </row>
     <row r="763" spans="2:2">
       <c r="B763" s="17" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
     </row>
     <row r="764" spans="2:2">
       <c r="B764" s="17" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
     </row>
     <row r="765" spans="2:2">
       <c r="B765" s="17" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
     </row>
     <row r="766" spans="2:2">
       <c r="B766" s="17" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
     </row>
     <row r="767" spans="2:2">
       <c r="B767" s="17" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
     </row>
     <row r="768" spans="2:2">
       <c r="B768" s="17" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
     </row>
     <row r="769" spans="2:2">
       <c r="B769" s="17" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
     </row>
     <row r="770" spans="2:2">
       <c r="B770" s="17" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="771" spans="2:2">
       <c r="B771" s="17" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="772" spans="2:2">
       <c r="B772" s="17" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
     </row>
     <row r="773" spans="2:2">
       <c r="B773" s="17" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="774" spans="2:2">
       <c r="B774" s="17" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="775" spans="2:2">
       <c r="B775" s="17" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
     </row>
     <row r="776" spans="2:2">
       <c r="B776" s="17" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
     </row>
     <row r="777" spans="2:2">
       <c r="B777" s="17" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
     </row>
     <row r="778" spans="2:2">
       <c r="B778" s="17" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
     </row>
     <row r="779" spans="2:2">
       <c r="B779" s="17" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
     </row>
     <row r="780" spans="2:2">
       <c r="B780" s="17" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
     </row>
     <row r="781" spans="2:2">
       <c r="B781" s="17" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
     </row>
     <row r="782" spans="2:2">
       <c r="B782" s="17" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
     </row>
     <row r="783" spans="2:2">
       <c r="B783" s="17" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
     </row>
     <row r="784" spans="2:2">
       <c r="B784" s="17" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
     </row>
     <row r="785" spans="2:2">
       <c r="B785" s="17" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
     </row>
     <row r="786" spans="2:2">
       <c r="B786" s="17" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
     </row>
     <row r="787" spans="2:2">
       <c r="B787" s="17" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="788" spans="2:2">
       <c r="B788" s="17" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
     </row>
     <row r="789" spans="2:2">
       <c r="B789" s="17" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="790" spans="2:2">
       <c r="B790" s="17" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
     </row>
     <row r="791" spans="2:2">
       <c r="B791" s="17" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
     </row>
     <row r="792" spans="2:2">
       <c r="B792" s="17" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
     </row>
     <row r="793" spans="2:2">
       <c r="B793" s="17" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
     </row>
     <row r="794" spans="2:2">
       <c r="B794" s="17" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
     </row>
     <row r="795" spans="2:2">
       <c r="B795" s="17" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
     </row>
     <row r="796" spans="2:2">
       <c r="B796" s="17" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
     </row>
     <row r="797" spans="2:2">
       <c r="B797" s="17" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
     </row>
     <row r="798" spans="2:2">
       <c r="B798" s="17" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
     </row>
     <row r="799" spans="2:2">
       <c r="B799" s="17" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
     </row>
     <row r="800" spans="2:2">
       <c r="B800" s="17" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
     </row>
     <row r="801" spans="2:2">
       <c r="B801" s="17" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
     </row>
     <row r="802" spans="2:2">
       <c r="B802" s="17" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="803" spans="2:2">
       <c r="B803" s="17" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
     </row>
     <row r="804" spans="2:2">
       <c r="B804" s="17" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
     </row>
     <row r="805" spans="2:2">
       <c r="B805" s="17" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
     </row>
     <row r="806" spans="2:2">
       <c r="B806" s="17" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
     </row>
     <row r="807" spans="2:2">
       <c r="B807" s="17" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
     </row>
     <row r="808" spans="2:2">
       <c r="B808" s="17" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
     </row>
     <row r="809" spans="2:2">
       <c r="B809" s="17" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
     </row>
     <row r="810" spans="2:2">
       <c r="B810" s="17" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
     </row>
     <row r="811" spans="2:2">
       <c r="B811" s="17" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
     </row>
     <row r="812" spans="2:2">
       <c r="B812" s="17" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
     </row>
     <row r="813" spans="2:2">
       <c r="B813" s="17" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="814" spans="2:2">
       <c r="B814" s="17" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
     </row>
     <row r="815" spans="2:2">
       <c r="B815" s="17" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="816" spans="2:2">
       <c r="B816" s="17" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
     </row>
     <row r="817" spans="2:2">
       <c r="B817" s="17" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
     </row>
     <row r="818" spans="2:2">
       <c r="B818" s="17" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
     </row>
     <row r="819" spans="2:2">
       <c r="B819" s="17" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
     </row>
     <row r="820" spans="2:2">
       <c r="B820" s="17" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
     </row>
     <row r="821" spans="2:2">
       <c r="B821" s="17" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
     </row>
     <row r="822" spans="2:2">
       <c r="B822" s="17" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
     </row>
     <row r="823" spans="2:2">
       <c r="B823" s="17" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
     </row>
     <row r="824" spans="2:2">
       <c r="B824" s="17" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
     </row>
     <row r="825" spans="2:2">
       <c r="B825" s="17" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
     </row>
     <row r="826" spans="2:2">
       <c r="B826" s="17" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
     </row>
     <row r="827" spans="2:2">
       <c r="B827" s="17" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
     </row>
     <row r="828" spans="2:2">
       <c r="B828" s="17" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="829" spans="2:2">
       <c r="B829" s="17" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="830" spans="2:2">
       <c r="B830" s="17" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="831" spans="2:2">
       <c r="B831" s="17" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
     </row>
     <row r="832" spans="2:2">
       <c r="B832" s="17" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
     </row>
     <row r="833" spans="2:2">
       <c r="B833" s="17" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
     </row>
     <row r="834" spans="2:2">
       <c r="B834" s="17" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
     </row>
     <row r="835" spans="2:2">
       <c r="B835" s="17" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
     </row>
     <row r="836" spans="2:2">
       <c r="B836" s="17" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="837" spans="2:2">
       <c r="B837" s="17" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
     </row>
     <row r="838" spans="2:2">
       <c r="B838" s="17" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="839" spans="2:2">
       <c r="B839" s="17" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
     </row>
     <row r="840" spans="2:2">
       <c r="B840" s="17" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
     </row>
     <row r="841" spans="2:2">
       <c r="B841" s="17" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
     </row>
     <row r="842" spans="2:2">
       <c r="B842" s="17" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
     </row>
     <row r="843" spans="2:2">
       <c r="B843" s="17" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
     </row>
     <row r="844" spans="2:2">
       <c r="B844" s="17" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
     </row>
     <row r="845" spans="2:2">
       <c r="B845" s="17" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
     </row>
     <row r="846" spans="2:2">
       <c r="B846" s="17" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="847" spans="2:2">
       <c r="B847" s="17" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
     </row>
     <row r="848" spans="2:2">
       <c r="B848" s="17" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
     </row>
     <row r="849" spans="2:2">
       <c r="B849" s="17" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="850" spans="2:2">
       <c r="B850" s="17" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
     </row>
     <row r="851" spans="2:2">
       <c r="B851" s="17" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
     </row>
     <row r="852" spans="2:2">
       <c r="B852" s="17" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
     </row>
     <row r="853" spans="2:2">
       <c r="B853" s="17" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
     </row>
     <row r="854" spans="2:2">
       <c r="B854" s="17" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
     </row>
     <row r="855" spans="2:2">
       <c r="B855" s="17" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
     </row>
     <row r="856" spans="2:2">
       <c r="B856" s="17" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
     </row>
     <row r="857" spans="2:2">
       <c r="B857" s="17" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
     </row>
     <row r="858" spans="2:2">
       <c r="B858" s="17" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
     </row>
     <row r="859" spans="2:2">
       <c r="B859" s="17" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
     </row>
     <row r="860" spans="2:2">
       <c r="B860" s="17" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
     </row>
     <row r="861" spans="2:2">
       <c r="B861" s="17" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
     </row>
     <row r="862" spans="2:2">
       <c r="B862" s="17" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
     </row>
     <row r="863" spans="2:2">
       <c r="B863" s="17" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
     </row>
     <row r="864" spans="2:2">
       <c r="B864" s="17" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
     </row>
     <row r="865" spans="2:2">
       <c r="B865" s="17" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
     </row>
     <row r="866" spans="2:2">
       <c r="B866" s="17" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
     </row>
     <row r="867" spans="2:2">
       <c r="B867" s="17" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
     </row>
     <row r="868" spans="2:2">
       <c r="B868" s="17" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
     </row>
     <row r="869" spans="2:2">
       <c r="B869" s="17" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
     </row>
     <row r="870" spans="2:2">
       <c r="B870" s="17" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
     </row>
     <row r="871" spans="2:2">
       <c r="B871" s="17" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
     </row>
     <row r="872" spans="2:2">
       <c r="B872" s="17" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
     </row>
     <row r="873" spans="2:2">
       <c r="B873" s="17" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
     </row>
     <row r="874" spans="2:2">
       <c r="B874" s="17" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
     </row>
     <row r="875" spans="2:2">
       <c r="B875" s="17" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="876" spans="2:2">
       <c r="B876" s="17" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
     </row>
     <row r="877" spans="2:2">
       <c r="B877" s="17" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
     </row>
     <row r="878" spans="2:2">
       <c r="B878" s="17" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
     </row>
     <row r="879" spans="2:2">
       <c r="B879" s="17" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
     </row>
     <row r="880" spans="2:2">
       <c r="B880" s="17" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
     </row>
     <row r="881" spans="2:2">
       <c r="B881" s="17" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
     </row>
     <row r="882" spans="2:2">
       <c r="B882" s="17" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="883" spans="2:2">
       <c r="B883" s="17" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
     </row>
     <row r="884" spans="2:2">
       <c r="B884" s="17" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
     </row>
     <row r="885" spans="2:2">
       <c r="B885" s="17" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
     </row>
     <row r="886" spans="2:2">
       <c r="B886" s="17" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
     </row>
     <row r="887" spans="2:2">
       <c r="B887" s="17" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
     </row>
     <row r="888" spans="2:2">
       <c r="B888" s="17" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
     </row>
     <row r="889" spans="2:2">
       <c r="B889" s="17" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
     </row>
     <row r="890" spans="2:2">
       <c r="B890" s="17" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
     </row>
     <row r="891" spans="2:2">
       <c r="B891" s="17" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
     </row>
     <row r="892" spans="2:2">
       <c r="B892" s="17" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
     </row>
     <row r="893" spans="2:2">
       <c r="B893" s="17" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
     </row>
     <row r="894" spans="2:2">
       <c r="B894" s="17" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
     </row>
     <row r="895" spans="2:2">
       <c r="B895" s="17" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
     </row>
     <row r="896" spans="2:2">
       <c r="B896" s="17" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
     </row>
     <row r="897" spans="2:2">
       <c r="B897" s="17" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
     </row>
     <row r="898" spans="2:2">
       <c r="B898" s="17" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
     </row>
     <row r="899" spans="2:2">
       <c r="B899" s="17" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
     </row>
     <row r="900" spans="2:2">
       <c r="B900" s="17" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
     </row>
     <row r="901" spans="2:2">
       <c r="B901" s="17" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
     </row>
     <row r="902" spans="2:2">
       <c r="B902" s="17" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="903" spans="2:2">
       <c r="B903" s="17" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
     </row>
     <row r="904" spans="2:2">
       <c r="B904" s="17" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
     </row>
     <row r="905" spans="2:2">
       <c r="B905" s="17" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
     </row>
     <row r="906" spans="2:2">
       <c r="B906" s="17" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
     </row>
     <row r="907" spans="2:2">
       <c r="B907" s="17" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
     </row>
     <row r="908" spans="2:2">
       <c r="B908" s="17" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
     </row>
     <row r="909" spans="2:2">
       <c r="B909" s="17" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
     </row>
     <row r="910" spans="2:2">
       <c r="B910" s="17" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
     </row>
     <row r="911" spans="2:2">
       <c r="B911" s="17" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
     </row>
     <row r="912" spans="2:2">
       <c r="B912" s="17" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
     </row>
     <row r="913" spans="2:2">
       <c r="B913" s="17" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
     </row>
     <row r="914" spans="2:2">
       <c r="B914" s="17" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
     </row>
     <row r="915" spans="2:2">
       <c r="B915" s="17" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
     </row>
     <row r="916" spans="2:2">
       <c r="B916" s="17" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
     </row>
     <row r="917" spans="2:2">
       <c r="B917" s="17" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
     </row>
     <row r="918" spans="2:2">
       <c r="B918" s="17" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
     <row r="919" spans="2:2">
       <c r="B919" s="17" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
     </row>
     <row r="920" spans="2:2">
       <c r="B920" s="17" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
     </row>
     <row r="921" spans="2:2">
       <c r="B921" s="17" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
     </row>
     <row r="922" spans="2:2">
       <c r="B922" s="17" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
     </row>
     <row r="923" spans="2:2">
       <c r="B923" s="17" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
     </row>
     <row r="924" spans="2:2">
       <c r="B924" s="17" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
     </row>
     <row r="925" spans="2:2">
       <c r="B925" s="17" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="926" spans="2:2">
       <c r="B926" s="17" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="927" spans="2:2">
       <c r="B927" s="17" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
     </row>
     <row r="928" spans="2:2">
       <c r="B928" s="17" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
     </row>
     <row r="929" spans="2:2">
       <c r="B929" s="17" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="930" spans="2:2">
       <c r="B930" s="17" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="931" spans="2:2">
       <c r="B931" s="17" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
     </row>
     <row r="932" spans="2:2">
       <c r="B932" s="17" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="933" spans="2:2">
       <c r="B933" s="17" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="934" spans="2:2">
       <c r="B934" s="17" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="935" spans="2:2">
       <c r="B935" s="17" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="936" spans="2:2">
       <c r="B936" s="17" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="937" spans="2:2">
       <c r="B937" s="17" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="938" spans="2:2">
       <c r="B938" s="17" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="939" spans="2:2">
       <c r="B939" s="17" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="940" spans="2:2">
       <c r="B940" s="17" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="941" spans="2:2">
       <c r="B941" s="17" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="942" spans="2:2">
       <c r="B942" s="17" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="943" spans="2:2">
       <c r="B943" s="17" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="944" spans="2:2">
       <c r="B944" s="17" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="945" spans="2:2">
       <c r="B945" s="17" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="946" spans="2:2">
       <c r="B946" s="17" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="947" spans="2:2">
       <c r="B947" s="17" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="948" spans="2:2">
       <c r="B948" s="17" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="949" spans="2:2">
       <c r="B949" s="17" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="950" spans="2:2">
       <c r="B950" s="17" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="951" spans="2:2">
       <c r="B951" s="17" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="952" spans="2:2">
       <c r="B952" s="17" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="953" spans="2:2">
       <c r="B953" s="17" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="954" spans="2:2">
       <c r="B954" s="17" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="955" spans="2:2">
       <c r="B955" s="17" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="956" spans="2:2">
       <c r="B956" s="17" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="957" spans="2:2">
       <c r="B957" s="17" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="958" spans="2:2">
       <c r="B958" s="17" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="959" spans="2:2">
       <c r="B959" s="17" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="960" spans="2:2">
       <c r="B960" s="17" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="961" spans="2:2">
       <c r="B961" s="17" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="962" spans="2:2">
       <c r="B962" s="17" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="963" spans="2:2">
       <c r="B963" s="17" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="964" spans="2:2">
       <c r="B964" s="17" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="965" spans="2:2">
       <c r="B965" s="17" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="966" spans="2:2">
       <c r="B966" s="17" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="967" spans="2:2">
       <c r="B967" s="17" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="968" spans="2:2">
       <c r="B968" s="17" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="969" spans="2:2">
       <c r="B969" s="17" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="970" spans="2:2">
       <c r="B970" s="17" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="971" spans="2:2">
       <c r="B971" s="17" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="972" spans="2:2">
       <c r="B972" s="17" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="973" spans="2:2">
       <c r="B973" s="17" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="974" spans="2:2">
       <c r="B974" s="17" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="975" spans="2:2">
       <c r="B975" s="17" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="976" spans="2:2">
       <c r="B976" s="17" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="977" spans="2:2">
       <c r="B977" s="17" t="s">
-        <v>1031</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="978" spans="2:2">
       <c r="B978" s="17" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="979" spans="2:2">
       <c r="B979" s="17" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="980" spans="2:2">
       <c r="B980" s="17" t="s">
-        <v>1034</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="981" spans="2:2">
       <c r="B981" s="17" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="982" spans="2:2">
       <c r="B982" s="17" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="983" spans="2:2">
       <c r="B983" s="17" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="984" spans="2:2">
       <c r="B984" s="17" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="985" spans="2:2">
       <c r="B985" s="17" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="986" spans="2:2">
       <c r="B986" s="17" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="987" spans="2:2">
       <c r="B987" s="17" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="988" spans="2:2">
       <c r="B988" s="17" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="989" spans="2:2">
       <c r="B989" s="17" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="990" spans="2:2">
       <c r="B990" s="17" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="991" spans="2:2">
       <c r="B991" s="17" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="992" spans="2:2">
       <c r="B992" s="17" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="993" spans="2:2">
       <c r="B993" s="17" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="994" spans="2:2">
       <c r="B994" s="17" t="s">
-        <v>1047</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="995" spans="2:2">
       <c r="B995" s="17" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="996" spans="2:2">
       <c r="B996" s="17" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="997" spans="2:2">
       <c r="B997" s="17" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="998" spans="2:2">
       <c r="B998" s="17" t="s">
-        <v>1051</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="999" spans="2:2">
       <c r="B999" s="17" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1000" spans="2:2">
       <c r="B1000" s="17" t="s">
-        <v>1053</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1001" spans="2:2">
       <c r="B1001" s="17" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1002" spans="2:2">
       <c r="B1002" s="17" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="1003" spans="2:2">
       <c r="B1003" s="17" t="s">
-        <v>1054</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1004" spans="2:2">
       <c r="B1004" s="17" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1005" spans="2:2">
       <c r="B1005" s="17" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1006" spans="2:2">
       <c r="B1006" s="17" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1007" spans="2:2">
       <c r="B1007" s="17" t="s">
-        <v>1058</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1008" spans="2:2">
       <c r="B1008" s="17" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1009" spans="2:2">
       <c r="B1009" s="17" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1010" spans="2:2">
       <c r="B1010" s="17" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1011" spans="2:2">
       <c r="B1011" s="17" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1012" spans="2:2">
       <c r="B1012" s="17" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1013" spans="2:2">
       <c r="B1013" s="17" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1014" spans="2:2">
       <c r="B1014" s="17" t="s">
-        <v>1065</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1015" spans="2:2">
       <c r="B1015" s="17" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1016" spans="2:2">
       <c r="B1016" s="17" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1017" spans="2:2">
       <c r="B1017" s="17" t="s">
-        <v>1068</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1018" spans="2:2">
       <c r="B1018" s="17" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1019" spans="2:2">
       <c r="B1019" s="17" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1020" spans="2:2">
       <c r="B1020" s="17" t="s">
-        <v>1071</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1021" spans="2:2">
       <c r="B1021" s="17" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1022" spans="2:2">
       <c r="B1022" s="17" t="s">
-        <v>1073</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1023" spans="2:2">
       <c r="B1023" s="17" t="s">
-        <v>1074</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1024" spans="2:2">
       <c r="B1024" s="17" t="s">
-        <v>1075</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1025" spans="2:2">
       <c r="B1025" s="17" t="s">
-        <v>1076</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1026" spans="2:2">
       <c r="B1026" s="17" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1027" spans="2:2">
       <c r="B1027" s="17" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1028" spans="2:2">
       <c r="B1028" s="17" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1029" spans="2:2">
       <c r="B1029" s="17" t="s">
-        <v>1080</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1030" spans="2:2">
       <c r="B1030" s="17" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1031" spans="2:2">
       <c r="B1031" s="17" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1032" spans="2:2">
       <c r="B1032" s="17" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1033" spans="2:2">
       <c r="B1033" s="17" t="s">
-        <v>1084</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1034" spans="2:2">
       <c r="B1034" s="17" t="s">
-        <v>1085</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1035" spans="2:2">
       <c r="B1035" s="17" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1036" spans="2:2">
       <c r="B1036" s="17" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1037" spans="2:2">
       <c r="B1037" s="17" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1038" spans="2:2">
       <c r="B1038" s="17" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1039" spans="2:2">
       <c r="B1039" s="17" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1040" spans="2:2">
       <c r="B1040" s="17" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1041" spans="2:2">
       <c r="B1041" s="17" t="s">
-        <v>1092</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1042" spans="2:2">
       <c r="B1042" s="17" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1043" spans="2:2">
       <c r="B1043" s="17" t="s">
-        <v>1094</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1044" spans="2:2">
       <c r="B1044" s="17" t="s">
-        <v>1095</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1045" spans="2:2">
       <c r="B1045" s="17" t="s">
-        <v>1096</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1046" spans="2:2">
       <c r="B1046" s="17" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1047" spans="2:2">
       <c r="B1047" s="17" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1048" spans="2:2">
       <c r="B1048" s="17" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1049" spans="2:2">
       <c r="B1049" s="17" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1050" spans="2:2">
       <c r="B1050" s="17" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1051" spans="2:2">
       <c r="B1051" s="17" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1052" spans="2:2">
       <c r="B1052" s="17" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1053" spans="2:2">
       <c r="B1053" s="17" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1054" spans="2:2">
       <c r="B1054" s="17" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1055" spans="2:2">
       <c r="B1055" s="17" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1056" spans="2:2">
       <c r="B1056" s="17" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1057" spans="2:2">
       <c r="B1057" s="17" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1058" spans="2:2">
       <c r="B1058" s="17" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1059" spans="2:2">
       <c r="B1059" s="17" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1060" spans="2:2">
       <c r="B1060" s="17" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1061" spans="2:2">
       <c r="B1061" s="17" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1062" spans="2:2">
       <c r="B1062" s="17" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1063" spans="2:2">
       <c r="B1063" s="17" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1064" spans="2:2">
       <c r="B1064" s="17" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1065" spans="2:2">
       <c r="B1065" s="17" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1066" spans="2:2">
       <c r="B1066" s="17" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1067" spans="2:2">
       <c r="B1067" s="17" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1068" spans="2:2">
       <c r="B1068" s="17" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1069" spans="2:2">
       <c r="B1069" s="17" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1070" spans="2:2">
       <c r="B1070" s="17" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1071" spans="2:2">
       <c r="B1071" s="17" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1072" spans="2:2">
       <c r="B1072" s="17" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1073" spans="2:2">
       <c r="B1073" s="17" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1074" spans="2:2">
       <c r="B1074" s="17" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1075" spans="2:2">
       <c r="B1075" s="17" t="s">
-        <v>1126</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1076" spans="2:2">
       <c r="B1076" s="17" t="s">
-        <v>1127</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1077" spans="2:2">
       <c r="B1077" s="17" t="s">
-        <v>1128</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1078" spans="2:2">
       <c r="B1078" s="17" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1079" spans="2:2">
       <c r="B1079" s="17" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1080" spans="2:2">
       <c r="B1080" s="17" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1081" spans="2:2">
       <c r="B1081" s="17" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1082" spans="2:2">
       <c r="B1082" s="17" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1083" spans="2:2">
       <c r="B1083" s="17" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1084" spans="2:2">
       <c r="B1084" s="17" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1085" spans="2:2">
       <c r="B1085" s="17" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1086" spans="2:2">
       <c r="B1086" s="17" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1087" spans="2:2">
       <c r="B1087" s="17" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1088" spans="2:2">
       <c r="B1088" s="17" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1089" spans="2:2">
       <c r="B1089" s="17" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1090" spans="2:2">
       <c r="B1090" s="17" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1091" spans="2:2">
       <c r="B1091" s="17" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1092" spans="2:2">
       <c r="B1092" s="17" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="1093" spans="2:2">
       <c r="B1093" s="17" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1094" spans="2:2">
       <c r="B1094" s="17" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1095" spans="2:2">
       <c r="B1095" s="17" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1096" spans="2:2">
       <c r="B1096" s="17" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1097" spans="2:2">
       <c r="B1097" s="17" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1098" spans="2:2">
       <c r="B1098" s="17" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1099" spans="2:2">
       <c r="B1099" s="17" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1100" spans="2:2">
       <c r="B1100" s="17" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1101" spans="2:2">
       <c r="B1101" s="17" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1102" spans="2:2">
       <c r="B1102" s="17" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1103" spans="2:2">
       <c r="B1103" s="17" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1104" spans="2:2">
       <c r="B1104" s="17" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1105" spans="2:2">
       <c r="B1105" s="17" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1106" spans="2:2">
       <c r="B1106" s="17" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1107" spans="2:2">
       <c r="B1107" s="17" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1108" spans="2:2">
       <c r="B1108" s="17" t="s">
-        <v>1157</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1109" spans="2:2">
       <c r="B1109" s="17" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1110" spans="2:2">
       <c r="B1110" s="17" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1111" spans="2:2">
       <c r="B1111" s="17" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1112" spans="2:2">
       <c r="B1112" s="17" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1113" spans="2:2">
       <c r="B1113" s="17" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1114" spans="2:2">
       <c r="B1114" s="17" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1115" spans="2:2">
       <c r="B1115" s="17" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1116" spans="2:2">
       <c r="B1116" s="17" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1117" spans="2:2">
       <c r="B1117" s="17" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1118" spans="2:2">
       <c r="B1118" s="17" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1119" spans="2:2">
       <c r="B1119" s="17" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1120" spans="2:2">
       <c r="B1120" s="17" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1121" spans="2:2">
       <c r="B1121" s="17" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1122" spans="2:2">
       <c r="B1122" s="17" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1123" spans="2:2">
       <c r="B1123" s="17" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1124" spans="2:2">
       <c r="B1124" s="17" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1125" spans="2:2">
       <c r="B1125" s="17" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1126" spans="2:2">
       <c r="B1126" s="17" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1127" spans="2:2">
       <c r="B1127" s="17" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1128" spans="2:2">
       <c r="B1128" s="17" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1129" spans="2:2">
       <c r="B1129" s="17" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1130" spans="2:2">
       <c r="B1130" s="17" t="s">
-        <v>1179</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1131" spans="2:2">
       <c r="B1131" s="17" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1132" spans="2:2">
       <c r="B1132" s="17" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1133" spans="2:2">
       <c r="B1133" s="17" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1134" spans="2:2">
       <c r="B1134" s="17" t="s">
-        <v>1183</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1135" spans="2:2">
       <c r="B1135" s="17" t="s">
-        <v>1184</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1136" spans="2:2">
       <c r="B1136" s="17" t="s">
-        <v>1185</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1137" spans="2:2">
       <c r="B1137" s="17" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1138" spans="2:2">
       <c r="B1138" s="17" t="s">
-        <v>1187</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1139" spans="2:2">
       <c r="B1139" s="17" t="s">
-        <v>1188</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1140" spans="2:2">
       <c r="B1140" s="17" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1141" spans="2:2">
       <c r="B1141" s="17" t="s">
-        <v>1190</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1142" spans="2:2">
       <c r="B1142" s="17" t="s">
-        <v>1191</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1143" spans="2:2">
       <c r="B1143" s="17" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1144" spans="2:2">
       <c r="B1144" s="17" t="s">
-        <v>1193</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1145" spans="2:2">
       <c r="B1145" s="17" t="s">
-        <v>1194</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1146" spans="2:2">
       <c r="B1146" s="17" t="s">
-        <v>1195</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1147" spans="2:2">
       <c r="B1147" s="17" t="s">
-        <v>1196</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1148" spans="2:2">
       <c r="B1148" s="17" t="s">
-        <v>1197</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1149" spans="2:2">
       <c r="B1149" s="17" t="s">
-        <v>1198</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1150" spans="2:2">
       <c r="B1150" s="17" t="s">
-        <v>1199</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1151" spans="2:2">
       <c r="B1151" s="17" t="s">
-        <v>1200</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1152" spans="2:2">
       <c r="B1152" s="17" t="s">
-        <v>1201</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1153" spans="2:2">
       <c r="B1153" s="17" t="s">
-        <v>1202</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1154" spans="2:2">
       <c r="B1154" s="17" t="s">
-        <v>1203</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1155" spans="2:2">
       <c r="B1155" s="17" t="s">
-        <v>1204</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1156" spans="2:2">
       <c r="B1156" s="17" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1157" spans="2:2">
       <c r="B1157" s="17" t="s">
-        <v>1205</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1158" spans="2:2">
       <c r="B1158" s="17" t="s">
-        <v>1206</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1159" spans="2:2">
       <c r="B1159" s="17" t="s">
-        <v>1207</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1160" spans="2:2">
       <c r="B1160" s="17" t="s">
-        <v>1208</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1161" spans="2:2">
       <c r="B1161" s="17" t="s">
-        <v>1209</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1162" spans="2:2">
       <c r="B1162" s="17" t="s">
-        <v>1210</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1163" spans="2:2">
       <c r="B1163" s="17" t="s">
-        <v>1211</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1164" spans="2:2">
       <c r="B1164" s="17" t="s">
-        <v>1212</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1165" spans="2:2">
       <c r="B1165" s="17" t="s">
-        <v>1213</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1166" spans="2:2">
       <c r="B1166" s="17" t="s">
-        <v>1214</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1167" spans="2:2">
       <c r="B1167" s="17" t="s">
-        <v>1215</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1168" spans="2:2">
       <c r="B1168" s="17" t="s">
-        <v>1216</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1169" spans="2:2">
       <c r="B1169" s="17" t="s">
-        <v>1217</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1170" spans="2:2">
       <c r="B1170" s="17" t="s">
-        <v>1218</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1171" spans="2:2">
       <c r="B1171" s="17" t="s">
-        <v>1219</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1172" spans="2:2">
       <c r="B1172" s="17" t="s">
-        <v>1220</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1173" spans="2:2">
       <c r="B1173" s="17" t="s">
-        <v>1221</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1174" spans="2:2">
       <c r="B1174" s="17" t="s">
-        <v>1222</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1175" spans="2:2">
       <c r="B1175" s="17" t="s">
-        <v>1223</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1176" spans="2:2">
       <c r="B1176" s="17" t="s">
-        <v>1224</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1177" spans="2:2">
       <c r="B1177" s="17" t="s">
-        <v>1225</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1178" spans="2:2">
       <c r="B1178" s="17" t="s">
-        <v>1226</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1179" spans="2:2">
       <c r="B1179" s="17" t="s">
-        <v>1227</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1180" spans="2:2">
       <c r="B1180" s="17" t="s">
-        <v>1228</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1181" spans="2:2">
       <c r="B1181" s="17" t="s">
-        <v>1229</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1182" spans="2:2">
       <c r="B1182" s="17" t="s">
-        <v>1230</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1183" spans="2:2">
       <c r="B1183" s="17" t="s">
-        <v>1231</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1184" spans="2:2">
       <c r="B1184" s="17" t="s">
-        <v>1232</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1185" spans="2:2">
       <c r="B1185" s="17" t="s">
-        <v>1233</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1186" spans="2:2">
       <c r="B1186" s="17" t="s">
-        <v>1234</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1187" spans="2:2">
       <c r="B1187" s="17" t="s">
-        <v>1235</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1188" spans="2:2">
       <c r="B1188" s="17" t="s">
-        <v>1236</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1189" spans="2:2">
       <c r="B1189" s="17" t="s">
-        <v>1237</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1190" spans="2:2">
       <c r="B1190" s="17" t="s">
-        <v>1238</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1191" spans="2:2">
       <c r="B1191" s="17" t="s">
-        <v>1239</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1192" spans="2:2">
       <c r="B1192" s="17" t="s">
-        <v>1240</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1193" spans="2:2">
       <c r="B1193" s="17" t="s">
-        <v>1241</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1194" spans="2:2">
       <c r="B1194" s="17" t="s">
-        <v>1242</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1195" spans="2:2">
       <c r="B1195" s="17" t="s">
-        <v>1243</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1196" spans="2:2">
       <c r="B1196" s="17" t="s">
-        <v>1244</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1197" spans="2:2">
       <c r="B1197" s="17" t="s">
-        <v>1245</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1198" spans="2:2">
       <c r="B1198" s="17" t="s">
-        <v>1246</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1199" spans="2:2">
       <c r="B1199" s="17" t="s">
-        <v>1247</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1200" spans="2:2">
       <c r="B1200" s="17" t="s">
-        <v>1248</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1201" spans="2:2">
       <c r="B1201" s="17" t="s">
-        <v>1249</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1202" spans="2:2">
       <c r="B1202" s="17" t="s">
-        <v>1250</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1203" spans="2:2">
       <c r="B1203" s="17" t="s">
-        <v>1251</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1204" spans="2:2">
       <c r="B1204" s="17" t="s">
-        <v>1252</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1205" spans="2:2">
       <c r="B1205" s="17" t="s">
-        <v>1253</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1206" spans="2:2">
       <c r="B1206" s="17" t="s">
-        <v>1254</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1207" spans="2:2">
       <c r="B1207" s="17" t="s">
-        <v>1255</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1208" spans="2:2">
       <c r="B1208" s="17" t="s">
-        <v>1256</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1209" spans="2:2">
       <c r="B1209" s="17" t="s">
-        <v>1257</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1210" spans="2:2">
       <c r="B1210" s="17" t="s">
-        <v>1258</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1211" spans="2:2">
       <c r="B1211" s="17" t="s">
-        <v>1259</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1212" spans="2:2">
       <c r="B1212" s="17" t="s">
-        <v>1260</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1213" spans="2:2">
       <c r="B1213" s="17" t="s">
-        <v>1261</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1214" spans="2:2">
       <c r="B1214" s="17" t="s">
-        <v>1262</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1215" spans="2:2">
       <c r="B1215" s="17" t="s">
-        <v>1263</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1216" spans="2:2">
       <c r="B1216" s="17" t="s">
-        <v>1264</v>
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -12416,7 +12492,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="48.75" customHeight="1">
       <c r="B1" s="15" t="s">
-        <v>1265</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13103,7 +13179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7AEB1E-AFE5-4B37-BB35-22254F40ABBB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -13126,7 +13202,7 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>1266</v>
+        <v>1276</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Utlity Table.xlsx
+++ b/src/main/resources/Utlity Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apolloits-my.sharepoint.com/personal/nischay_m_apolloits_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77883FE5-C0D8-45DB-8BCB-43D597F43182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41F2E54C-F225-4F40-9120-387EB950DA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-8340" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{68D5B328-6ABB-42A7-8ABA-2A0E36049037}"/>
+    <workbookView xWindow="22932" yWindow="-8340" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="2" xr2:uid="{68D5B328-6ABB-42A7-8ABA-2A0E36049037}"/>
   </bookViews>
   <sheets>
     <sheet name="UtilityAgencyListing" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5282" uniqueCount="2441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5281" uniqueCount="2438">
   <si>
     <t>HomeAgency</t>
   </si>
@@ -557,12 +557,18 @@
     <t>ITAG_Valid</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>90</t>
   </si>
   <si>
     <t>ITAG_LOW_Bal</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -809,15 +815,9 @@
     <t>Specialty Plate (including organizational, motorcycles, trucks and other vehicle types)</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Passenger Standard and Vanity</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Temporary Plate</t>
   </si>
   <si>
@@ -7350,15 +7350,6 @@
   </si>
   <si>
     <t>Vietnam Veterans Of America Truck</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>NY could only have duplicates for plates that are 1-5 digits. Other plate numberings would not have duplicates and it would not be expected that alphanumeric plates or plates with 6 or more digits would have an associated LIC_TYPE in the ICLP file.</t>
   </si>
   <si>
     <t>LIC_TYPE</t>
@@ -7374,7 +7365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7437,17 +7428,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -7512,7 +7492,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -7617,23 +7597,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9824,8 +9792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F76E9A6-262D-46FC-96E3-D22B5FA83555}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9950,33 +9918,33 @@
       <c r="A11" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="19">
-        <v>1</v>
+      <c r="B11" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="19">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B13" s="19">
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -9986,659 +9954,659 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D70688-0E48-4467-94EF-9735DD34292D}">
-  <dimension ref="A1:E1220"/>
+  <dimension ref="A1:E1216"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C448" sqref="C448"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1217" sqref="A1217:XFD1222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.28515625" style="37" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="38" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="39">
       <c r="A3" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5" ht="25.5">
       <c r="A47" s="25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="28"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>257</v>
@@ -10648,13 +10616,13 @@
     </row>
     <row r="50" spans="1:5" ht="39">
       <c r="A50" s="25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>258</v>
@@ -10692,10 +10660,10 @@
         <v>259</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>264</v>
@@ -10811,7 +10779,7 @@
         <v>259</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>281</v>
@@ -11024,7 +10992,7 @@
         <v>313</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="28"/>
@@ -11089,7 +11057,7 @@
         <v>322</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="28"/>
@@ -11728,7 +11696,7 @@
         <v>420</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>421</v>
@@ -12117,10 +12085,10 @@
         <v>471</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="28"/>
@@ -12133,7 +12101,7 @@
         <v>479</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="28"/>
@@ -12250,7 +12218,7 @@
         <v>493</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D172" s="27"/>
       <c r="E172" s="28"/>
@@ -12276,7 +12244,7 @@
         <v>496</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D174" s="27"/>
       <c r="E174" s="28"/>
@@ -12289,7 +12257,7 @@
         <v>497</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D175" s="27"/>
       <c r="E175" s="28"/>
@@ -12341,7 +12309,7 @@
         <v>504</v>
       </c>
       <c r="C179" s="27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D179" s="27" t="s">
         <v>505</v>
@@ -12436,7 +12404,7 @@
         <v>518</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D186" s="27"/>
       <c r="E186" s="28"/>
@@ -12598,7 +12566,7 @@
         <v>313</v>
       </c>
       <c r="C198" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D198" s="27"/>
       <c r="E198" s="28"/>
@@ -12730,7 +12698,7 @@
         <v>552</v>
       </c>
       <c r="C208" s="27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D208" s="27"/>
       <c r="E208" s="28"/>
@@ -12821,7 +12789,7 @@
         <v>561</v>
       </c>
       <c r="C215" s="27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D215" s="27" t="s">
         <v>505</v>
@@ -12836,7 +12804,7 @@
         <v>562</v>
       </c>
       <c r="C216" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D216" s="27"/>
       <c r="E216" s="28"/>
@@ -12888,7 +12856,7 @@
         <v>569</v>
       </c>
       <c r="C220" s="27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D220" s="27"/>
       <c r="E220" s="28"/>
@@ -12942,7 +12910,7 @@
         <v>360</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D224" s="27"/>
       <c r="E224" s="28"/>
@@ -13126,7 +13094,7 @@
         <v>599</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D238" s="27"/>
       <c r="E238" s="28"/>
@@ -13152,7 +13120,7 @@
         <v>601</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D240" s="27"/>
       <c r="E240" s="28"/>
@@ -13178,7 +13146,7 @@
         <v>604</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D242" s="27"/>
       <c r="E242" s="28"/>
@@ -13243,7 +13211,7 @@
         <v>611</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D247" s="27"/>
       <c r="E247" s="28"/>
@@ -13321,7 +13289,7 @@
         <v>622</v>
       </c>
       <c r="C253" s="27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D253" s="27"/>
       <c r="E253" s="28"/>
@@ -13620,7 +13588,7 @@
         <v>665</v>
       </c>
       <c r="C276" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D276" s="27"/>
       <c r="E276" s="28"/>
@@ -13763,7 +13731,7 @@
         <v>683</v>
       </c>
       <c r="C287" s="27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D287" s="27"/>
       <c r="E287" s="28"/>
@@ -13854,7 +13822,7 @@
         <v>695</v>
       </c>
       <c r="C294" s="27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D294" s="27"/>
       <c r="E294" s="28"/>
@@ -13867,7 +13835,7 @@
         <v>696</v>
       </c>
       <c r="C295" s="27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D295" s="27"/>
       <c r="E295" s="28"/>
@@ -14036,7 +14004,7 @@
         <v>721</v>
       </c>
       <c r="C308" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D308" s="27"/>
       <c r="E308" s="28"/>
@@ -14049,7 +14017,7 @@
         <v>722</v>
       </c>
       <c r="C309" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D309" s="27"/>
       <c r="E309" s="28"/>
@@ -14075,7 +14043,7 @@
         <v>725</v>
       </c>
       <c r="C311" s="27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D311" s="27"/>
       <c r="E311" s="28"/>
@@ -14088,7 +14056,7 @@
         <v>726</v>
       </c>
       <c r="C312" s="27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D312" s="27"/>
       <c r="E312" s="28"/>
@@ -14179,7 +14147,7 @@
         <v>739</v>
       </c>
       <c r="C319" s="27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D319" s="27"/>
       <c r="E319" s="28"/>
@@ -14348,7 +14316,7 @@
         <v>763</v>
       </c>
       <c r="C332" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D332" s="27"/>
       <c r="E332" s="28"/>
@@ -14478,7 +14446,7 @@
         <v>782</v>
       </c>
       <c r="C342" s="27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D342" s="27"/>
       <c r="E342" s="28"/>
@@ -14543,7 +14511,7 @@
         <v>791</v>
       </c>
       <c r="C347" s="27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D347" s="27"/>
       <c r="E347" s="28"/>
@@ -14777,7 +14745,7 @@
         <v>824</v>
       </c>
       <c r="C365" s="27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D365" s="27"/>
       <c r="E365" s="28"/>
@@ -14803,7 +14771,7 @@
         <v>826</v>
       </c>
       <c r="C367" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D367" s="27"/>
       <c r="E367" s="28"/>
@@ -14816,7 +14784,7 @@
         <v>827</v>
       </c>
       <c r="C368" s="27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D368" s="27"/>
       <c r="E368" s="28"/>
@@ -14829,7 +14797,7 @@
         <v>828</v>
       </c>
       <c r="C369" s="27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D369" s="27"/>
       <c r="E369" s="28"/>
@@ -14855,7 +14823,7 @@
         <v>831</v>
       </c>
       <c r="C371" s="27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D371" s="27"/>
       <c r="E371" s="28"/>
@@ -14894,7 +14862,7 @@
         <v>837</v>
       </c>
       <c r="C374" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D374" s="27"/>
       <c r="E374" s="28"/>
@@ -14907,7 +14875,7 @@
         <v>838</v>
       </c>
       <c r="C375" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D375" s="27"/>
       <c r="E375" s="28"/>
@@ -14920,7 +14888,7 @@
         <v>839</v>
       </c>
       <c r="C376" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D376" s="27"/>
       <c r="E376" s="28"/>
@@ -14946,7 +14914,7 @@
         <v>842</v>
       </c>
       <c r="C378" s="27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D378" s="27"/>
       <c r="E378" s="28"/>
@@ -14972,7 +14940,7 @@
         <v>845</v>
       </c>
       <c r="C380" s="27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D380" s="27"/>
       <c r="E380" s="28"/>
@@ -15063,7 +15031,7 @@
         <v>858</v>
       </c>
       <c r="C387" s="27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D387" s="27"/>
       <c r="E387" s="28"/>
@@ -15089,7 +15057,7 @@
         <v>861</v>
       </c>
       <c r="C389" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D389" s="27"/>
       <c r="E389" s="28"/>
@@ -15115,7 +15083,7 @@
         <v>864</v>
       </c>
       <c r="C391" s="27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D391" s="27"/>
       <c r="E391" s="28"/>
@@ -15141,7 +15109,7 @@
         <v>867</v>
       </c>
       <c r="C393" s="27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D393" s="27"/>
       <c r="E393" s="28"/>
@@ -15154,7 +15122,7 @@
         <v>868</v>
       </c>
       <c r="C394" s="27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D394" s="27"/>
       <c r="E394" s="28"/>
@@ -15206,7 +15174,7 @@
         <v>874</v>
       </c>
       <c r="C398" s="27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D398" s="27"/>
       <c r="E398" s="28"/>
@@ -15349,7 +15317,7 @@
         <v>893</v>
       </c>
       <c r="C409" s="27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D409" s="27"/>
       <c r="E409" s="28"/>
@@ -15375,7 +15343,7 @@
         <v>895</v>
       </c>
       <c r="C411" s="27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D411" s="27"/>
       <c r="E411" s="28"/>
@@ -15388,7 +15356,7 @@
         <v>896</v>
       </c>
       <c r="C412" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D412" s="27"/>
       <c r="E412" s="28"/>
@@ -15760,7 +15728,7 @@
         <v>951</v>
       </c>
       <c r="C440" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D440" s="27"/>
       <c r="E440" s="28"/>
@@ -19827,7 +19795,7 @@
         <v>313</v>
       </c>
       <c r="C749" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D749" s="27"/>
       <c r="E749" s="28"/>
@@ -20707,7 +20675,7 @@
         <v>322</v>
       </c>
       <c r="C815" s="27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D815" s="27"/>
       <c r="E815" s="28"/>
@@ -26279,30 +26247,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="1217" spans="1:5" s="30" customFormat="1">
-      <c r="A1217" s="37"/>
-      <c r="B1217" s="38"/>
-      <c r="E1217" s="39"/>
-    </row>
-    <row r="1219" spans="1:5">
-      <c r="A1219" s="40" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:5" ht="29.65" customHeight="1">
-      <c r="A1220" s="42" t="s">
-        <v>2436</v>
-      </c>
-      <c r="B1220" s="43" t="s">
-        <v>2437</v>
-      </c>
-      <c r="C1220" s="43"/>
-      <c r="D1220" s="43"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1220:D1220"/>
-  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
@@ -26324,232 +26269,232 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="16" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -26569,7 +26514,7 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="2:2">
@@ -26584,7 +26529,7 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -26629,7 +26574,7 @@
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="2:2">
@@ -27129,7 +27074,7 @@
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="2:2">
@@ -32422,7 +32367,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="48.75" customHeight="1">
       <c r="B1" s="15" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -33132,7 +33077,7 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Utlity Table.xlsx
+++ b/src/main/resources/Utlity Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apolloits-my.sharepoint.com/personal/nischay_m_apolloits_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50CB2BA6-6DA1-4D10-9AEA-8932829B75FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F4A7BEF-A12B-4FCB-872F-1163D13DFE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-8340" windowWidth="30936" windowHeight="16776" firstSheet="2" activeTab="2" xr2:uid="{68D5B328-6ABB-42A7-8ABA-2A0E36049037}"/>
+    <workbookView xWindow="22932" yWindow="-8340" windowWidth="30936" windowHeight="16776" xr2:uid="{68D5B328-6ABB-42A7-8ABA-2A0E36049037}"/>
   </bookViews>
   <sheets>
     <sheet name="UtilityAgencyListing" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
     <t>SRTA</t>
   </si>
   <si>
-    <t>0010110001</t>
-  </si>
-  <si>
-    <t>0099990002</t>
+    <t>0000110001</t>
+  </si>
+  <si>
+    <t>0009990002</t>
   </si>
   <si>
     <t>0035</t>
@@ -8102,8 +8102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB6E20C-A33D-40AF-8C7C-658D7F955B95}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9897,8 +9897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F76E9A6-262D-46FC-96E3-D22B5FA83555}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10061,7 +10061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D70688-0E48-4467-94EF-9735DD34292D}">
   <dimension ref="A1:E1277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1277" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1217" sqref="A1217:A1277"/>
     </sheetView>
